--- a/SALT/SALT_speedtest.xlsx
+++ b/SALT/SALT_speedtest.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/Documents/LDRD_FY20_SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natiben/myrepo/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99326999-0F06-514C-A1E3-427EE888E607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC9510-A6B8-184F-8472-F2AECCDAB257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="5100" windowWidth="20040" windowHeight="15940" xr2:uid="{A9F1CEC9-0A43-C247-8042-D24C4C60781B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>LiCl Speedtest</t>
   </si>
@@ -128,6 +133,24 @@
   </si>
   <si>
     <t>1058/1250</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>with 3 nodes, 3x36 processors</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>std from L</t>
+  </si>
+  <si>
+    <t>POTIM 2.0, NSW=1250</t>
   </si>
 </sst>
 </file>
@@ -489,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFB0F54-C5C9-D640-82CD-118A45053856}">
-  <dimension ref="B3:F16"/>
+  <dimension ref="B3:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,6 +687,35 @@
         <v>24.658796944444443</v>
       </c>
     </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SALT/SALT_speedtest.xlsx
+++ b/SALT/SALT_speedtest.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natiben/myrepo/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC9510-A6B8-184F-8472-F2AECCDAB257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96144E1-725E-3545-AAE8-01DC99114EC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="5100" windowWidth="20040" windowHeight="15940" xr2:uid="{A9F1CEC9-0A43-C247-8042-D24C4C60781B}"/>
+    <workbookView xWindow="4640" yWindow="3460" windowWidth="20040" windowHeight="15940" xr2:uid="{A9F1CEC9-0A43-C247-8042-D24C4C60781B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>LiCl Speedtest</t>
   </si>
@@ -151,6 +145,9 @@
   </si>
   <si>
     <t>POTIM 2.0, NSW=1250</t>
+  </si>
+  <si>
+    <t>died…</t>
   </si>
 </sst>
 </file>
@@ -515,7 +512,7 @@
   <dimension ref="B3:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,20 +684,23 @@
         <v>24.658796944444443</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -708,7 +708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>37</v>
       </c>

--- a/SALT/SALT_speedtest.xlsx
+++ b/SALT/SALT_speedtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96144E1-725E-3545-AAE8-01DC99114EC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121CC646-998F-C740-A0B6-483F128560E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4640" yWindow="3460" windowWidth="20040" windowHeight="15940" xr2:uid="{A9F1CEC9-0A43-C247-8042-D24C4C60781B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>LiCl Speedtest</t>
   </si>
@@ -147,7 +147,43 @@
     <t>POTIM 2.0, NSW=1250</t>
   </si>
   <si>
-    <t>died…</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>std from M</t>
+  </si>
+  <si>
+    <t>sawtooth</t>
+  </si>
+  <si>
+    <t>2x48</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>NPAR = 24</t>
+  </si>
+  <si>
+    <t>sigma = 0.1</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>NBANDS = 1000</t>
+  </si>
+  <si>
+    <t>higher volume</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>MAXMIX = 200</t>
   </si>
 </sst>
 </file>
@@ -509,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFB0F54-C5C9-D640-82CD-118A45053856}">
-  <dimension ref="B3:F20"/>
+  <dimension ref="B3:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,23 +720,27 @@
         <v>24.658796944444443</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>56980.93</v>
+      </c>
+      <c r="F18" s="1">
+        <f>E18/3600</f>
+        <v>15.828036111111111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -708,12 +748,70 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
+      </c>
+      <c r="E20">
+        <v>63755.349000000002</v>
+      </c>
+      <c r="F20" s="1">
+        <f>E20/3600</f>
+        <v>17.709819166666666</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/SALT/SALT_speedtest.xlsx
+++ b/SALT/SALT_speedtest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121CC646-998F-C740-A0B6-483F128560E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25533EA5-7765-3840-9C66-D72CB959DDFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="3460" windowWidth="20040" windowHeight="15940" xr2:uid="{A9F1CEC9-0A43-C247-8042-D24C4C60781B}"/>
+    <workbookView xWindow="2340" yWindow="4500" windowWidth="20040" windowHeight="15940" xr2:uid="{A9F1CEC9-0A43-C247-8042-D24C4C60781B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>LiCl Speedtest</t>
   </si>
@@ -183,7 +183,136 @@
     <t>T</t>
   </si>
   <si>
-    <t>MAXMIX = 200</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>NBANDS=1000</t>
+  </si>
+  <si>
+    <t>sigma=0.1</t>
+  </si>
+  <si>
+    <t>MAXMIX=200</t>
+  </si>
+  <si>
+    <t>K-monk 111</t>
+  </si>
+  <si>
+    <t>OSZICAR lines</t>
+  </si>
+  <si>
+    <t>3x48</t>
+  </si>
+  <si>
+    <t>most stable</t>
+  </si>
+  <si>
+    <t>fastest</t>
+  </si>
+  <si>
+    <t>NELM=50</t>
+  </si>
+  <si>
+    <t>lines per timesteps</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>OSZICAR</t>
+  </si>
+  <si>
+    <t>931/1000</t>
+  </si>
+  <si>
+    <t>LiCl-KCl</t>
+  </si>
+  <si>
+    <t>all with NBANDS 1000</t>
+  </si>
+  <si>
+    <t>NCORE=12</t>
+  </si>
+  <si>
+    <t>NCORE=1</t>
+  </si>
+  <si>
+    <t>NCORE=6</t>
+  </si>
+  <si>
+    <t>NCORE=24</t>
+  </si>
+  <si>
+    <t>NCORE=48</t>
+  </si>
+  <si>
+    <t>NCORE=48, LPLANE=F</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>lines per timestep</t>
+  </si>
+  <si>
+    <t>lines per hour</t>
+  </si>
+  <si>
+    <t>same as G, sigma=0.1</t>
+  </si>
+  <si>
+    <t>NCORE=24, NELM=50, MAXMIX=120</t>
+  </si>
+  <si>
+    <t>same as H, algo=F</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>EFFICIENCY</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>std, NCORE=24</t>
+  </si>
+  <si>
+    <t>std, NCORE=48</t>
+  </si>
+  <si>
+    <t>std, NCORE=1</t>
+  </si>
+  <si>
+    <t>MAXMIX=100</t>
+  </si>
+  <si>
+    <t>NELM=100</t>
+  </si>
+  <si>
+    <t>POTIM=2.0</t>
   </si>
 </sst>
 </file>
@@ -246,6 +375,846 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$15:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>24.658796944444443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.828036111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F029-0B4E-BE07-65C716F6D834}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="537397760"/>
+        <c:axId val="666117680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="537397760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666117680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="666117680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537397760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3643C728-9815-8549-A157-292731F06A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,15 +1514,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFB0F54-C5C9-D640-82CD-118A45053856}">
-  <dimension ref="B3:F26"/>
+  <dimension ref="B3:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -564,7 +1538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -582,7 +1556,7 @@
         <v>32.806863888888891</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -593,7 +1567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -604,7 +1578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -615,7 +1589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -626,7 +1600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -641,7 +1615,7 @@
         <v>33.608248333333336</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -652,7 +1626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -667,7 +1641,7 @@
         <v>33.409909722222224</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -678,7 +1652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -689,7 +1663,7 @@
         <v>117670.43</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -703,8 +1677,15 @@
         <f>E15/3600</f>
         <v>24.187828055555556</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f>2*36</f>
+        <v>72</v>
+      </c>
+      <c r="J15" s="1">
+        <v>24.658796944444443</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
@@ -719,13 +1700,20 @@
         <f>E16/3600</f>
         <v>24.658796944444443</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f>3*36</f>
+        <v>108</v>
+      </c>
+      <c r="J16" s="1">
+        <v>15.828036111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -740,15 +1728,18 @@
         <v>15.828036111111111</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>37</v>
       </c>
@@ -763,58 +1754,693 @@
         <v>17.709819166666666</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>104893</v>
+      </c>
+      <c r="F22">
+        <f>E22/3600</f>
+        <v>29.136944444444445</v>
+      </c>
+      <c r="G22">
+        <v>9437</v>
+      </c>
+      <c r="I22">
+        <f>G22/1000</f>
+        <v>9.4369999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>125259</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F28" si="0">E23/3600</f>
+        <v>34.794166666666669</v>
+      </c>
+      <c r="G23">
+        <v>11089</v>
+      </c>
+      <c r="I23">
+        <f>G23/1250</f>
+        <v>8.8712</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>110305</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>30.640277777777779</v>
+      </c>
+      <c r="G24">
+        <v>9357</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I28" si="1">G24/1000</f>
+        <v>9.3569999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>119534.417</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>33.204004722222223</v>
+      </c>
+      <c r="G25">
+        <v>8579</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>8.5790000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26">
+        <v>104407.30899999999</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>29.002030277777777</v>
+      </c>
+      <c r="G26">
+        <v>9372</v>
+      </c>
+      <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>9.3719999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>113481.836</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>31.522732222222221</v>
+      </c>
+      <c r="G27">
+        <v>10067</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>10.067</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <v>103462.179</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>28.739494166666667</v>
+      </c>
+      <c r="G28">
+        <v>9378</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>9.3780000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="F32">
+        <v>52606.057000000001</v>
+      </c>
+      <c r="G32">
+        <f>F32/3600</f>
+        <v>14.612793611111112</v>
+      </c>
+      <c r="H32">
+        <v>9226</v>
+      </c>
+      <c r="I32">
+        <f>H32/1000</f>
+        <v>9.2260000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="F33">
+        <v>59545.218999999997</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G37" si="2">F33/3600</f>
+        <v>16.54033861111111</v>
+      </c>
+      <c r="H33">
+        <v>9180</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33:I35" si="3">H33/1000</f>
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="F34">
+        <v>52836.548000000003</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>14.67681888888889</v>
+      </c>
+      <c r="H34">
+        <v>9193</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>9.1929999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C35" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35">
+        <v>12452</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>12.452</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
         <v>52</v>
+      </c>
+      <c r="F37">
+        <v>62680.773999999998</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>17.411326111111112</v>
+      </c>
+      <c r="H37">
+        <v>10833</v>
+      </c>
+      <c r="I37">
+        <f>H37/1250</f>
+        <v>8.6663999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41">
+        <v>95752</v>
+      </c>
+      <c r="G41" s="1">
+        <f>F41/3600</f>
+        <v>26.597777777777779</v>
+      </c>
+      <c r="H41">
+        <v>12715</v>
+      </c>
+      <c r="I41">
+        <f>H41/G41</f>
+        <v>478.04745592781347</v>
+      </c>
+      <c r="J41" s="2">
+        <f>H41/1000</f>
+        <v>12.715</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42">
+        <v>77614.692999999999</v>
+      </c>
+      <c r="G42" s="1">
+        <f>F42/3600</f>
+        <v>21.559636944444446</v>
+      </c>
+      <c r="H42">
+        <v>10227</v>
+      </c>
+      <c r="I42">
+        <f>H42/G42</f>
+        <v>474.3586372234958</v>
+      </c>
+      <c r="J42" s="1">
+        <f>H42/1000</f>
+        <v>10.227</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43">
+        <v>92150.414999999994</v>
+      </c>
+      <c r="G43">
+        <f>F43/3600</f>
+        <v>25.597337499999998</v>
+      </c>
+      <c r="H43">
+        <v>11255</v>
+      </c>
+      <c r="I43">
+        <f>H43/G43</f>
+        <v>439.69416741096609</v>
+      </c>
+      <c r="J43" s="1">
+        <f>H43/1000</f>
+        <v>11.255000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44">
+        <v>79533.676999999996</v>
+      </c>
+      <c r="G44" s="1">
+        <f>F44/3600</f>
+        <v>22.092688055555556</v>
+      </c>
+      <c r="H44">
+        <v>12962</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" ref="I44:I45" si="4">H44/G44</f>
+        <v>586.70995432538598</v>
+      </c>
+      <c r="J44">
+        <f>H44/1000</f>
+        <v>12.962</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45">
+        <v>78711.66</v>
+      </c>
+      <c r="G45" s="1">
+        <f>F45/3600</f>
+        <v>21.864350000000002</v>
+      </c>
+      <c r="H45">
+        <v>13319</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="4"/>
+        <v>609.16514783197306</v>
+      </c>
+      <c r="J45">
+        <f>H45/1000</f>
+        <v>13.319000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46">
+        <v>129256</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" ref="G46:G48" si="5">F46/3600</f>
+        <v>35.904444444444444</v>
+      </c>
+      <c r="H46">
+        <v>14624</v>
+      </c>
+      <c r="I46">
+        <f>H46/G46</f>
+        <v>407.30333601534937</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46:J48" si="6">H46/1000</f>
+        <v>14.624000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="e">
+        <f t="shared" ref="I47:I48" si="7">H47/G47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48">
+        <v>79776</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="5"/>
+        <v>22.16</v>
+      </c>
+      <c r="H48">
+        <v>13068</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="7"/>
+        <v>589.71119133574007</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="6"/>
+        <v>13.068</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49">
+        <v>86952</v>
+      </c>
+      <c r="G49" s="2">
+        <f>F49/3600</f>
+        <v>24.153333333333332</v>
+      </c>
+      <c r="H49">
+        <v>13369</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49" si="8">H49/G49</f>
+        <v>553.50538227987852</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49" si="9">H49/1000</f>
+        <v>13.369</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1">
+        <v>84424</v>
+      </c>
+      <c r="G51" s="1">
+        <f>F51/3600</f>
+        <v>23.451111111111111</v>
+      </c>
+      <c r="H51" s="1">
+        <v>13818</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" ref="I51" si="10">H51/G51</f>
+        <v>589.22581256514741</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" ref="J51" si="11">H51/1000</f>
+        <v>13.818</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
+        <v>77283</v>
+      </c>
+      <c r="G52" s="2">
+        <f>F52/3600</f>
+        <v>21.467500000000001</v>
+      </c>
+      <c r="H52" s="2">
+        <v>13034</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" ref="I52" si="12">H52/G52</f>
+        <v>607.15034354256431</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" ref="J52" si="13">H52/1000</f>
+        <v>13.034000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>